--- a/data/144/SCB/old/FM0001FinansBKv.xlsx
+++ b/data/144/SCB/old/FM0001FinansBKv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <x:si>
     <x:t>Balance of Payments. Financial account. Transactions, SEK billions by type of investment, item and quarter</x:t>
   </x:si>
@@ -493,6 +493,9 @@
     <x:t>2021K2</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K3</x:t>
+  </x:si>
+  <x:si>
     <x:t>net</x:t>
   </x:si>
   <x:si>
@@ -511,13 +514,13 @@
     <x:t>Foreign investment in Sweden</x:t>
   </x:si>
   <x:si>
-    <x:t>Financial account: Positive values denote net increase. Negative values denote net decrease.</x:t>
+    <x:t>New sources have been used for the compilation of Sweden´s balance of payments for transactions in portfolio investments and for debt securities in the reserve assets from the first quarter of 2021. This affects the comparison with previous periods. For further information, see the document New data sources for statistics on securities under More information.</x:t>
   </x:si>
   <x:si>
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20210903 09:30</x:t>
+    <x:t>20211206 09:30</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -964,7 +967,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FD49"/>
+  <x:dimension ref="A1:FE49"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
@@ -972,15 +975,15 @@
   <x:cols>
     <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="22.840625" style="0" customWidth="1"/>
-    <x:col min="3" max="160" width="9.130625" style="0" customWidth="1"/>
+    <x:col min="3" max="161" width="9.130625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:160">
+    <x:row r="1" spans="1:161">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:160">
+    <x:row r="3" spans="1:161">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1455,13 +1458,16 @@
       <x:c r="FD3" s="2" t="s">
         <x:v>158</x:v>
       </x:c>
+      <x:c r="FE3" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:160">
+    <x:row r="4" spans="1:161">
       <x:c r="A4" s="2" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>-1.5</x:v>
@@ -1893,54 +1899,57 @@
         <x:v>14.2</x:v>
       </x:c>
       <x:c r="EP4" s="3" t="n">
-        <x:v>149.7</x:v>
+        <x:v>181.6</x:v>
       </x:c>
       <x:c r="EQ4" s="3" t="n">
-        <x:v>-33.1</x:v>
+        <x:v>-32.1</x:v>
       </x:c>
       <x:c r="ER4" s="3" t="n">
-        <x:v>21.1</x:v>
+        <x:v>21.8</x:v>
       </x:c>
       <x:c r="ES4" s="3" t="n">
-        <x:v>-77.3</x:v>
+        <x:v>-76.3</x:v>
       </x:c>
       <x:c r="ET4" s="3" t="n">
-        <x:v>159</x:v>
+        <x:v>160.5</x:v>
       </x:c>
       <x:c r="EU4" s="3" t="n">
-        <x:v>-67.7</x:v>
+        <x:v>-67.5</x:v>
       </x:c>
       <x:c r="EV4" s="3" t="n">
-        <x:v>60.2</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="EW4" s="3" t="n">
-        <x:v>125.8</x:v>
+        <x:v>131.4</x:v>
       </x:c>
       <x:c r="EX4" s="3" t="n">
-        <x:v>97.1</x:v>
+        <x:v>101.7</x:v>
       </x:c>
       <x:c r="EY4" s="3" t="n">
-        <x:v>61.9</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="EZ4" s="3" t="n">
-        <x:v>88.9</x:v>
+        <x:v>83.3</x:v>
       </x:c>
       <x:c r="FA4" s="3" t="n">
-        <x:v>-24.6</x:v>
+        <x:v>-11.1</x:v>
       </x:c>
       <x:c r="FB4" s="3" t="n">
-        <x:v>96.3</x:v>
+        <x:v>126.6</x:v>
       </x:c>
       <x:c r="FC4" s="3" t="n">
-        <x:v>103.3</x:v>
+        <x:v>96.1</x:v>
       </x:c>
       <x:c r="FD4" s="3" t="n">
-        <x:v>170.6</x:v>
+        <x:v>211.9</x:v>
+      </x:c>
+      <x:c r="FE4" s="3" t="n">
+        <x:v>43.3</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:160">
+    <x:row r="5" spans="1:161">
       <x:c r="B5" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>0.7</x:v>
@@ -2372,54 +2381,57 @@
         <x:v>66.8</x:v>
       </x:c>
       <x:c r="EP5" s="3" t="n">
-        <x:v>-10</x:v>
+        <x:v>21.9</x:v>
       </x:c>
       <x:c r="EQ5" s="3" t="n">
-        <x:v>69.4</x:v>
+        <x:v>70.3</x:v>
       </x:c>
       <x:c r="ER5" s="3" t="n">
-        <x:v>-36.1</x:v>
+        <x:v>-35.4</x:v>
       </x:c>
       <x:c r="ES5" s="3" t="n">
-        <x:v>-28.3</x:v>
+        <x:v>-27.3</x:v>
       </x:c>
       <x:c r="ET5" s="3" t="n">
-        <x:v>113.3</x:v>
+        <x:v>114.3</x:v>
       </x:c>
       <x:c r="EU5" s="3" t="n">
-        <x:v>27.3</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="EV5" s="3" t="n">
-        <x:v>49.4</x:v>
+        <x:v>48.9</x:v>
       </x:c>
       <x:c r="EW5" s="3" t="n">
-        <x:v>27.3</x:v>
+        <x:v>32.8</x:v>
       </x:c>
       <x:c r="EX5" s="3" t="n">
-        <x:v>-47.2</x:v>
+        <x:v>-42.6</x:v>
       </x:c>
       <x:c r="EY5" s="3" t="n">
-        <x:v>29.4</x:v>
+        <x:v>30.3</x:v>
       </x:c>
       <x:c r="EZ5" s="3" t="n">
-        <x:v>14.3</x:v>
+        <x:v>8.6</x:v>
       </x:c>
       <x:c r="FA5" s="3" t="n">
-        <x:v>-33.6</x:v>
+        <x:v>-21.4</x:v>
       </x:c>
       <x:c r="FB5" s="3" t="n">
-        <x:v>0.7</x:v>
+        <x:v>29.6</x:v>
       </x:c>
       <x:c r="FC5" s="3" t="n">
-        <x:v>-17.4</x:v>
+        <x:v>-39.3</x:v>
       </x:c>
       <x:c r="FD5" s="3" t="n">
-        <x:v>-42.1</x:v>
+        <x:v>-48.4</x:v>
+      </x:c>
+      <x:c r="FE5" s="3" t="n">
+        <x:v>-5.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:160">
+    <x:row r="6" spans="1:161">
       <x:c r="B6" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>0</x:v>
@@ -2863,45 +2875,48 @@
         <x:v>-147.7</x:v>
       </x:c>
       <x:c r="ET6" s="3" t="n">
-        <x:v>131.2</x:v>
+        <x:v>131.7</x:v>
       </x:c>
       <x:c r="EU6" s="3" t="n">
-        <x:v>-13.3</x:v>
+        <x:v>-12.7</x:v>
       </x:c>
       <x:c r="EV6" s="3" t="n">
-        <x:v>42.9</x:v>
+        <x:v>43.2</x:v>
       </x:c>
       <x:c r="EW6" s="3" t="n">
-        <x:v>10.2</x:v>
+        <x:v>10.3</x:v>
       </x:c>
       <x:c r="EX6" s="3" t="n">
         <x:v>64.7</x:v>
       </x:c>
       <x:c r="EY6" s="3" t="n">
-        <x:v>-103.1</x:v>
+        <x:v>-103</x:v>
       </x:c>
       <x:c r="EZ6" s="3" t="n">
-        <x:v>36</x:v>
+        <x:v>36.1</x:v>
       </x:c>
       <x:c r="FA6" s="3" t="n">
-        <x:v>54</x:v>
+        <x:v>55.3</x:v>
       </x:c>
       <x:c r="FB6" s="3" t="n">
-        <x:v>114.7</x:v>
+        <x:v>116.1</x:v>
       </x:c>
       <x:c r="FC6" s="3" t="n">
-        <x:v>160.6</x:v>
+        <x:v>175.8</x:v>
       </x:c>
       <x:c r="FD6" s="3" t="n">
-        <x:v>78.7</x:v>
+        <x:v>146.5</x:v>
+      </x:c>
+      <x:c r="FE6" s="3" t="n">
+        <x:v>-35.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:160">
+    <x:row r="7" spans="1:161">
       <x:c r="A7" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>1.7</x:v>
@@ -3333,7 +3348,7 @@
         <x:v>-274.4</x:v>
       </x:c>
       <x:c r="EP7" s="3" t="n">
-        <x:v>-360.4</x:v>
+        <x:v>-360.3</x:v>
       </x:c>
       <x:c r="EQ7" s="3" t="n">
         <x:v>-257.2</x:v>
@@ -3348,39 +3363,42 @@
         <x:v>-178.7</x:v>
       </x:c>
       <x:c r="EU7" s="3" t="n">
-        <x:v>-97.8</x:v>
+        <x:v>-98.7</x:v>
       </x:c>
       <x:c r="EV7" s="3" t="n">
-        <x:v>-307.9</x:v>
+        <x:v>-308.5</x:v>
       </x:c>
       <x:c r="EW7" s="3" t="n">
-        <x:v>-4.2</x:v>
+        <x:v>-5.6</x:v>
       </x:c>
       <x:c r="EX7" s="3" t="n">
-        <x:v>-509.8</x:v>
+        <x:v>-510.6</x:v>
       </x:c>
       <x:c r="EY7" s="3" t="n">
-        <x:v>16.6</x:v>
+        <x:v>9.6</x:v>
       </x:c>
       <x:c r="EZ7" s="3" t="n">
-        <x:v>-461.7</x:v>
+        <x:v>-484.3</x:v>
       </x:c>
       <x:c r="FA7" s="3" t="n">
-        <x:v>-322.5</x:v>
+        <x:v>-323.4</x:v>
       </x:c>
       <x:c r="FB7" s="3" t="n">
-        <x:v>-504.3</x:v>
+        <x:v>-528</x:v>
       </x:c>
       <x:c r="FC7" s="3" t="n">
-        <x:v>-35.7</x:v>
+        <x:v>-21.5</x:v>
       </x:c>
       <x:c r="FD7" s="3" t="n">
-        <x:v>-90.8</x:v>
+        <x:v>-65.1</x:v>
+      </x:c>
+      <x:c r="FE7" s="3" t="n">
+        <x:v>-116.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:160">
+    <x:row r="8" spans="1:161">
       <x:c r="B8" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>1.3</x:v>
@@ -3827,39 +3845,42 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="EU8" s="3" t="n">
-        <x:v>87.3</x:v>
+        <x:v>86.3</x:v>
       </x:c>
       <x:c r="EV8" s="3" t="n">
-        <x:v>67.7</x:v>
+        <x:v>67.2</x:v>
       </x:c>
       <x:c r="EW8" s="3" t="n">
-        <x:v>35.5</x:v>
+        <x:v>34.2</x:v>
       </x:c>
       <x:c r="EX8" s="3" t="n">
-        <x:v>-34.6</x:v>
+        <x:v>-35.4</x:v>
       </x:c>
       <x:c r="EY8" s="3" t="n">
-        <x:v>230.6</x:v>
+        <x:v>223.6</x:v>
       </x:c>
       <x:c r="EZ8" s="3" t="n">
-        <x:v>20.5</x:v>
+        <x:v>-2.1</x:v>
       </x:c>
       <x:c r="FA8" s="3" t="n">
-        <x:v>16.5</x:v>
+        <x:v>15.6</x:v>
       </x:c>
       <x:c r="FB8" s="3" t="n">
-        <x:v>6.7</x:v>
+        <x:v>-17</x:v>
       </x:c>
       <x:c r="FC8" s="3" t="n">
-        <x:v>57.2</x:v>
+        <x:v>34.9</x:v>
       </x:c>
       <x:c r="FD8" s="3" t="n">
-        <x:v>30.7</x:v>
+        <x:v>30.6</x:v>
+      </x:c>
+      <x:c r="FE8" s="3" t="n">
+        <x:v>24.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:160">
+    <x:row r="9" spans="1:161">
       <x:c r="B9" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>0.1</x:v>
@@ -4330,18 +4351,21 @@
         <x:v>108.7</x:v>
       </x:c>
       <x:c r="FC9" s="3" t="n">
-        <x:v>129.1</x:v>
+        <x:v>165.5</x:v>
       </x:c>
       <x:c r="FD9" s="3" t="n">
-        <x:v>107</x:v>
+        <x:v>146.4</x:v>
+      </x:c>
+      <x:c r="FE9" s="3" t="n">
+        <x:v>28.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:160">
+    <x:row r="10" spans="1:161">
       <x:c r="A10" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>3.2</x:v>
@@ -4773,54 +4797,57 @@
         <x:v>-288.6</x:v>
       </x:c>
       <x:c r="EP10" s="3" t="n">
-        <x:v>-510</x:v>
+        <x:v>-542</x:v>
       </x:c>
       <x:c r="EQ10" s="3" t="n">
-        <x:v>-224.2</x:v>
+        <x:v>-225.1</x:v>
       </x:c>
       <x:c r="ER10" s="3" t="n">
-        <x:v>-432.2</x:v>
+        <x:v>-432.9</x:v>
       </x:c>
       <x:c r="ES10" s="3" t="n">
-        <x:v>-424.6</x:v>
+        <x:v>-425.6</x:v>
       </x:c>
       <x:c r="ET10" s="3" t="n">
-        <x:v>-337.7</x:v>
+        <x:v>-339.2</x:v>
       </x:c>
       <x:c r="EU10" s="3" t="n">
-        <x:v>-30</x:v>
+        <x:v>-31.3</x:v>
       </x:c>
       <x:c r="EV10" s="3" t="n">
-        <x:v>-368.1</x:v>
+        <x:v>-368.5</x:v>
       </x:c>
       <x:c r="EW10" s="3" t="n">
-        <x:v>-130</x:v>
+        <x:v>-137</x:v>
       </x:c>
       <x:c r="EX10" s="3" t="n">
-        <x:v>-606.9</x:v>
+        <x:v>-612.3</x:v>
       </x:c>
       <x:c r="EY10" s="3" t="n">
-        <x:v>-45.3</x:v>
+        <x:v>-53.4</x:v>
       </x:c>
       <x:c r="EZ10" s="3" t="n">
-        <x:v>-550.6</x:v>
+        <x:v>-567.6</x:v>
       </x:c>
       <x:c r="FA10" s="3" t="n">
-        <x:v>-297.9</x:v>
+        <x:v>-312.2</x:v>
       </x:c>
       <x:c r="FB10" s="3" t="n">
-        <x:v>-600.6</x:v>
+        <x:v>-654.6</x:v>
       </x:c>
       <x:c r="FC10" s="3" t="n">
-        <x:v>-138.9</x:v>
+        <x:v>-117.6</x:v>
       </x:c>
       <x:c r="FD10" s="3" t="n">
-        <x:v>-261.3</x:v>
+        <x:v>-277</x:v>
+      </x:c>
+      <x:c r="FE10" s="3" t="n">
+        <x:v>-159.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:160">
+    <x:row r="11" spans="1:161">
       <x:c r="B11" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>0.7</x:v>
@@ -5252,54 +5279,57 @@
         <x:v>15.4</x:v>
       </x:c>
       <x:c r="EP11" s="3" t="n">
-        <x:v>44.1</x:v>
+        <x:v>12.2</x:v>
       </x:c>
       <x:c r="EQ11" s="3" t="n">
-        <x:v>-18.1</x:v>
+        <x:v>-19.1</x:v>
       </x:c>
       <x:c r="ER11" s="3" t="n">
-        <x:v>2.9</x:v>
+        <x:v>2.2</x:v>
       </x:c>
       <x:c r="ES11" s="3" t="n">
-        <x:v>62.2</x:v>
+        <x:v>61.2</x:v>
       </x:c>
       <x:c r="ET11" s="3" t="n">
-        <x:v>-10.3</x:v>
+        <x:v>-11.3</x:v>
       </x:c>
       <x:c r="EU11" s="3" t="n">
-        <x:v>60</x:v>
+        <x:v>59.3</x:v>
       </x:c>
       <x:c r="EV11" s="3" t="n">
-        <x:v>18.4</x:v>
+        <x:v>18.3</x:v>
       </x:c>
       <x:c r="EW11" s="3" t="n">
-        <x:v>8.2</x:v>
+        <x:v>1.3</x:v>
       </x:c>
       <x:c r="EX11" s="3" t="n">
-        <x:v>12.6</x:v>
+        <x:v>7.2</x:v>
       </x:c>
       <x:c r="EY11" s="3" t="n">
-        <x:v>201.2</x:v>
+        <x:v>193.3</x:v>
       </x:c>
       <x:c r="EZ11" s="3" t="n">
-        <x:v>6.2</x:v>
+        <x:v>-10.7</x:v>
       </x:c>
       <x:c r="FA11" s="3" t="n">
-        <x:v>50</x:v>
+        <x:v>37.1</x:v>
       </x:c>
       <x:c r="FB11" s="3" t="n">
-        <x:v>6</x:v>
+        <x:v>-46.5</x:v>
       </x:c>
       <x:c r="FC11" s="3" t="n">
-        <x:v>74.6</x:v>
+        <x:v>74.3</x:v>
       </x:c>
       <x:c r="FD11" s="3" t="n">
-        <x:v>72.8</x:v>
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="FE11" s="3" t="n">
+        <x:v>29.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:160">
+    <x:row r="12" spans="1:161">
       <x:c r="B12" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>0</x:v>
@@ -5743,16 +5773,16 @@
         <x:v>89.5</x:v>
       </x:c>
       <x:c r="ET12" s="3" t="n">
-        <x:v>-111.9</x:v>
+        <x:v>-112.4</x:v>
       </x:c>
       <x:c r="EU12" s="3" t="n">
-        <x:v>21.6</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="EV12" s="3" t="n">
-        <x:v>30.2</x:v>
+        <x:v>29.9</x:v>
       </x:c>
       <x:c r="EW12" s="3" t="n">
-        <x:v>-3.3</x:v>
+        <x:v>-3.5</x:v>
       </x:c>
       <x:c r="EX12" s="3" t="n">
         <x:v>-67.9</x:v>
@@ -5761,128 +5791,131 @@
         <x:v>-37.7</x:v>
       </x:c>
       <x:c r="EZ12" s="3" t="n">
-        <x:v>16.8</x:v>
+        <x:v>16.6</x:v>
       </x:c>
       <x:c r="FA12" s="3" t="n">
-        <x:v>82.5</x:v>
+        <x:v>81.1</x:v>
       </x:c>
       <x:c r="FB12" s="3" t="n">
-        <x:v>-6</x:v>
+        <x:v>-7.4</x:v>
       </x:c>
       <x:c r="FC12" s="3" t="n">
-        <x:v>-31.5</x:v>
+        <x:v>-10.3</x:v>
       </x:c>
       <x:c r="FD12" s="3" t="n">
-        <x:v>28.3</x:v>
+        <x:v>-0.1</x:v>
+      </x:c>
+      <x:c r="FE12" s="3" t="n">
+        <x:v>64.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:160">
+    <x:row r="14" spans="1:161">
       <x:c r="A14" s="4" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:160">
+    <x:row r="16" spans="1:161">
       <x:c r="A16" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:160">
+    <x:row r="17" spans="1:161">
       <x:c r="A17" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:160">
+    <x:row r="19" spans="1:161">
       <x:c r="A19" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:160">
+    <x:row r="20" spans="1:161">
       <x:c r="A20" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:160">
+    <x:row r="22" spans="1:161">
       <x:c r="A22" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:160">
+    <x:row r="23" spans="1:161">
       <x:c r="A23" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:160">
+    <x:row r="24" spans="1:161">
       <x:c r="A24" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:160">
+    <x:row r="25" spans="1:161">
       <x:c r="A25" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:160">
+    <x:row r="26" spans="1:161">
       <x:c r="A26" s="0" t="s"/>
     </x:row>
-    <x:row r="27" spans="1:160">
+    <x:row r="27" spans="1:161">
       <x:c r="A27" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:160">
+    <x:row r="28" spans="1:161">
       <x:c r="A28" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:160">
+    <x:row r="29" spans="1:161">
       <x:c r="A29" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:160">
+    <x:row r="30" spans="1:161">
       <x:c r="A30" s="0" t="s"/>
     </x:row>
-    <x:row r="31" spans="1:160">
+    <x:row r="31" spans="1:161">
       <x:c r="A31" s="0" t="s"/>
     </x:row>
-    <x:row r="33" spans="1:160">
+    <x:row r="33" spans="1:161">
       <x:c r="A33" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:160">
+    <x:row r="35" spans="1:161">
       <x:c r="A35" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:160">
+    <x:row r="36" spans="1:161">
       <x:c r="A36" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:160">
+    <x:row r="38" spans="1:161">
       <x:c r="A38" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:160">
+    <x:row r="45" spans="1:161">
       <x:c r="A45" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:160">
+    <x:row r="46" spans="1:161">
       <x:c r="A46" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:160">
+    <x:row r="48" spans="1:161">
       <x:c r="A48" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:160">
+    <x:row r="49" spans="1:161">
       <x:c r="A49" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
